--- a/data/trans_orig/IMC_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2589,7 +2589,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4624,7 +4624,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6659,7 +6659,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>84243</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67984</v>
+        <v>69097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100482</v>
+        <v>102736</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1471878253016694</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1187810478984143</v>
+        <v>0.1207253905615542</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1755601005782348</v>
+        <v>0.1794986014878778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>183</v>
@@ -765,19 +765,19 @@
         <v>185497</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>161632</v>
+        <v>164496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>210780</v>
+        <v>212682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2052140414937429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1788126091288136</v>
+        <v>0.1819810114307565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.23318373477254</v>
+        <v>0.235287835019928</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>268</v>
@@ -786,19 +786,19 @@
         <v>269740</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240456</v>
+        <v>239446</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>299703</v>
+        <v>296149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1827173014912687</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1628808220996392</v>
+        <v>0.1621962383260842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2030132843343998</v>
+        <v>0.2006059344133101</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>254569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232308</v>
+        <v>232710</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281435</v>
+        <v>280956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4447793640050128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4058851904465657</v>
+        <v>0.4065864197858153</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4917176666297535</v>
+        <v>0.4908814099683651</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>307</v>
@@ -836,19 +836,19 @@
         <v>319506</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288506</v>
+        <v>292297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346867</v>
+        <v>348187</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3534662366833742</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3191713718503572</v>
+        <v>0.3233661238716978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3837362910590458</v>
+        <v>0.385196364893419</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>560</v>
@@ -857,19 +857,19 @@
         <v>574075</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>534280</v>
+        <v>531212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>611243</v>
+        <v>612859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3888682983543941</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3619118255995352</v>
+        <v>0.3598333875321835</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4140451136388407</v>
+        <v>0.4151396846669477</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>230976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>207961</v>
+        <v>206899</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>253243</v>
+        <v>254264</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4035572891719632</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3633449835550665</v>
+        <v>0.3614908550128507</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4424612655096499</v>
+        <v>0.4442464057164498</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>353</v>
@@ -907,19 +907,19 @@
         <v>373373</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>343830</v>
+        <v>346196</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>403625</v>
+        <v>406257</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4130598282149484</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3803759426704975</v>
+        <v>0.3829933761800337</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4465272341882403</v>
+        <v>0.449438253148817</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>575</v>
@@ -928,19 +928,19 @@
         <v>604349</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>569988</v>
+        <v>563403</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>643564</v>
+        <v>641238</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4093756977607796</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3860997180836243</v>
+        <v>0.3816391269490053</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4359391614990941</v>
+        <v>0.4343635600906658</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9110</v>
+        <v>7697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004475521521354705</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01591630595940102</v>
+        <v>0.01344737800808231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -978,19 +978,19 @@
         <v>25545</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17059</v>
+        <v>16414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37309</v>
+        <v>37151</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02825989360793453</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01887168387911152</v>
+        <v>0.01815839848969998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04127429622097151</v>
+        <v>0.04109968388457095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -999,19 +999,19 @@
         <v>28106</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18830</v>
+        <v>19465</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39712</v>
+        <v>40945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0190387023935575</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0127554379160518</v>
+        <v>0.01318537543299635</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0269005192118719</v>
+        <v>0.02773572160768651</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>133607</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>111307</v>
+        <v>111658</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>157012</v>
+        <v>155980</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1249910252070672</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1041286441642361</v>
+        <v>0.104456991933735</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1468864555557782</v>
+        <v>0.1459207935786727</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>150</v>
@@ -1124,19 +1124,19 @@
         <v>158545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>134865</v>
+        <v>136360</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>183747</v>
+        <v>182528</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1519693402626645</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1292713425283475</v>
+        <v>0.1307045837330764</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1761255626278729</v>
+        <v>0.17495739416489</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>275</v>
@@ -1145,19 +1145,19 @@
         <v>292152</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>263345</v>
+        <v>263167</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>323909</v>
+        <v>325211</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1383162865226065</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1246775685808287</v>
+        <v>0.1245932053211242</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1533512482266753</v>
+        <v>0.1539675292803538</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>514570</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>483447</v>
+        <v>482562</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>549432</v>
+        <v>550152</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4813857894978914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4522696894970096</v>
+        <v>0.4514416950118718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5139997043307043</v>
+        <v>0.5146734822014392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>355</v>
@@ -1195,19 +1195,19 @@
         <v>362040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>333758</v>
+        <v>331054</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>396701</v>
+        <v>393497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3470243640811973</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3199149301809539</v>
+        <v>0.3173227380227475</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3802471470869317</v>
+        <v>0.3771765157458344</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>875</v>
@@ -1216,19 +1216,19 @@
         <v>876611</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>824337</v>
+        <v>830874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>919864</v>
+        <v>917687</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4150213371324968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3902731520025165</v>
+        <v>0.3933677765427315</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4354991516385735</v>
+        <v>0.4344687142333649</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>411596</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>381067</v>
+        <v>377604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>444388</v>
+        <v>445066</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3850528750729295</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3564921517340887</v>
+        <v>0.353252290956374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4157301163622025</v>
+        <v>0.416363902663069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>492</v>
@@ -1266,19 +1266,19 @@
         <v>502675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>470514</v>
+        <v>475224</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>536385</v>
+        <v>538601</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.481825979076744</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4509988601740198</v>
+        <v>0.4555137043317382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5141381202770753</v>
+        <v>0.5162621786026227</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>884</v>
@@ -1287,19 +1287,19 @@
         <v>914272</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>865747</v>
+        <v>868530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>964818</v>
+        <v>958606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4328515198922673</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4098782519431971</v>
+        <v>0.4111956213737168</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4567821477660826</v>
+        <v>0.4538410507055998</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>9161</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4650</v>
+        <v>4499</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17220</v>
+        <v>17265</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008570310222111948</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004349810299208466</v>
+        <v>0.004209231197126653</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01610970885784418</v>
+        <v>0.01615158382053861</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1337,19 +1337,19 @@
         <v>20010</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12141</v>
+        <v>12116</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30438</v>
+        <v>30742</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01918031657939422</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01163723928533694</v>
+        <v>0.01161313360423108</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02917598113961407</v>
+        <v>0.0294666570822675</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -1358,19 +1358,19 @@
         <v>29171</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20258</v>
+        <v>19545</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42091</v>
+        <v>40656</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01381085645262928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009590818085214271</v>
+        <v>0.009253191989817154</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01992764662051853</v>
+        <v>0.01924791982402463</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>124164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105322</v>
+        <v>103532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>150495</v>
+        <v>146780</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1112412895063059</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09436067535007217</v>
+        <v>0.09275685430574217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1348324531027391</v>
+        <v>0.1315038064110553</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -1483,19 +1483,19 @@
         <v>111639</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93499</v>
+        <v>93574</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131187</v>
+        <v>132293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1133059612429043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09489458949036993</v>
+        <v>0.09497158653683813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1331455805160274</v>
+        <v>0.1342678977630793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>232</v>
@@ -1504,19 +1504,19 @@
         <v>235803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>208291</v>
+        <v>207537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>268156</v>
+        <v>265195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1122093323733339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09911755168927434</v>
+        <v>0.09875883631129839</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1276049532419995</v>
+        <v>0.1261962916764044</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>527528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>493255</v>
+        <v>490281</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>559434</v>
+        <v>560990</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4726257176065916</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4419194763604351</v>
+        <v>0.4392550867553578</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5012113940489255</v>
+        <v>0.5026051742062496</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>296</v>
@@ -1554,19 +1554,19 @@
         <v>297044</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>267621</v>
+        <v>268976</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>328417</v>
+        <v>325844</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3014795438695944</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2716171523707426</v>
+        <v>0.2729922876864743</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3333207779803443</v>
+        <v>0.330709736632833</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>815</v>
@@ -1575,19 +1575,19 @@
         <v>824572</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>778552</v>
+        <v>779621</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>869777</v>
+        <v>867878</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3923820499239992</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3704827381752822</v>
+        <v>0.3709916329491207</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4138934982671168</v>
+        <v>0.4129898457825245</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>458808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>427346</v>
+        <v>425966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>492913</v>
+        <v>496170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4110579986986916</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3828698944196772</v>
+        <v>0.3816339652690587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.441613659247626</v>
+        <v>0.44453184610854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>541</v>
@@ -1625,19 +1625,19 @@
         <v>549022</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>518776</v>
+        <v>518898</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>579574</v>
+        <v>577323</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5572200114832727</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5265224623038386</v>
+        <v>0.5266460215790242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5882276401309178</v>
+        <v>0.585943453703909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>991</v>
@@ -1646,19 +1646,19 @@
         <v>1007830</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>963328</v>
+        <v>965479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1059233</v>
+        <v>1056026</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.479587582069502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4584106521005502</v>
+        <v>0.4594342607434644</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5040482102695469</v>
+        <v>0.5025220413824798</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>5665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1888</v>
+        <v>1980</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13469</v>
+        <v>13297</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005074994188410942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001691688239948991</v>
+        <v>0.001773733679661082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01206706893406032</v>
+        <v>0.01191304780126583</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1696,19 +1696,19 @@
         <v>27583</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19164</v>
+        <v>18791</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41516</v>
+        <v>38929</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02799448340422856</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01945052870231178</v>
+        <v>0.01907120095530726</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04213561046745101</v>
+        <v>0.03951066655045277</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -1717,19 +1717,19 @@
         <v>33247</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22828</v>
+        <v>23055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46112</v>
+        <v>46033</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01582103563316487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01086287568628898</v>
+        <v>0.01097106333029499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02194308800264666</v>
+        <v>0.02190523379443236</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>45734</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34146</v>
+        <v>34953</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59138</v>
+        <v>60608</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1035163544031504</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07728810528719614</v>
+        <v>0.07911505207899262</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1338568787088631</v>
+        <v>0.1371840923807561</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1842,19 +1842,19 @@
         <v>29185</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20842</v>
+        <v>19335</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41772</v>
+        <v>40728</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08678944734976517</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06198134564530106</v>
+        <v>0.05749905001299466</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1242213838843235</v>
+        <v>0.1211172646222251</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -1863,19 +1863,19 @@
         <v>74918</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59408</v>
+        <v>60668</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90934</v>
+        <v>92013</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09628725995197192</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07635264356811039</v>
+        <v>0.07797207898848477</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1168716663049672</v>
+        <v>0.1182575823412037</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>215693</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>193484</v>
+        <v>193787</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235927</v>
+        <v>237545</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4882118317030494</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4379423878840645</v>
+        <v>0.4386279511395624</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5340113014530047</v>
+        <v>0.5376730424637468</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1913,19 +1913,19 @@
         <v>79318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63902</v>
+        <v>65174</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94439</v>
+        <v>94380</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2358752001912725</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1900312184841765</v>
+        <v>0.1938153941077798</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2808434291344021</v>
+        <v>0.2806672935333137</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>291</v>
@@ -1934,19 +1934,19 @@
         <v>295010</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>268114</v>
+        <v>266908</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>322199</v>
+        <v>318131</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3791560847637682</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3445885866148914</v>
+        <v>0.3430379856125442</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.414099450835943</v>
+        <v>0.4088713905943979</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>179428</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>159689</v>
+        <v>157944</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>200029</v>
+        <v>201464</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4061274720264797</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3614493146133418</v>
+        <v>0.3574998548395298</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4527582118450045</v>
+        <v>0.4560055568822421</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>212</v>
@@ -1984,19 +1984,19 @@
         <v>213984</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>196041</v>
+        <v>197223</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>229300</v>
+        <v>232305</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6363448963045719</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5829858672851458</v>
+        <v>0.586501544214428</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6818934751200821</v>
+        <v>0.6908296154743079</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>386</v>
@@ -2005,19 +2005,19 @@
         <v>393411</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>366167</v>
+        <v>367066</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>422335</v>
+        <v>422460</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5056236609573881</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4706085347400034</v>
+        <v>0.4717639487085345</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5427980049992416</v>
+        <v>0.5429578781079182</v>
       </c>
     </row>
     <row r="22">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4773</v>
+        <v>5245</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002144341867320512</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01080406832415681</v>
+        <v>0.01187140443648473</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2055,19 +2055,19 @@
         <v>13784</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7517</v>
+        <v>7848</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22269</v>
+        <v>23492</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04099045615439039</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02235537958070276</v>
+        <v>0.02333925499606536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06622292747948817</v>
+        <v>0.06986017452462302</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2076,19 +2076,19 @@
         <v>14731</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8518</v>
+        <v>8741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24008</v>
+        <v>23648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01893299432687184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01094798116687928</v>
+        <v>0.01123433924280397</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03085539278072295</v>
+        <v>0.03039250169899815</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>387747</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>350422</v>
+        <v>350850</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>426352</v>
+        <v>425885</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1211994565075698</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1095326253523005</v>
+        <v>0.1096662134528408</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.133266204126553</v>
+        <v>0.1331203547837689</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>470</v>
@@ -2201,19 +2201,19 @@
         <v>484866</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>443949</v>
+        <v>446792</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>529206</v>
+        <v>527372</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1483338392421543</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1358161441220633</v>
+        <v>0.1366857952250158</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1618987055219633</v>
+        <v>0.1613374161583672</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>848</v>
@@ -2222,19 +2222,19 @@
         <v>872614</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>817744</v>
+        <v>819263</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>926823</v>
+        <v>925891</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1349124286548984</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1264292015588747</v>
+        <v>0.126664002827029</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1432936636166481</v>
+        <v>0.1431495426664698</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1512360</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1450594</v>
+        <v>1459510</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1564546</v>
+        <v>1575874</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4727232603304121</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4534168116516851</v>
+        <v>0.4562035130169586</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4890351811639729</v>
+        <v>0.4925758185736562</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1038</v>
@@ -2272,19 +2272,19 @@
         <v>1057908</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1004676</v>
+        <v>1007507</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1107870</v>
+        <v>1109465</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.323642979600937</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3073577119195643</v>
+        <v>0.3082239810480381</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3389278458807635</v>
+        <v>0.3394155910481554</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2541</v>
@@ -2293,19 +2293,19 @@
         <v>2570268</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2490106</v>
+        <v>2488252</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2652091</v>
+        <v>2645454</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3973821789667448</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3849885639769126</v>
+        <v>0.3847019272290275</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4100326549940581</v>
+        <v>0.4090065615750693</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1280809</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1222673</v>
+        <v>1221716</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1338143</v>
+        <v>1335887</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4003463886416391</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3821746533925807</v>
+        <v>0.3818755955081533</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4182675432187078</v>
+        <v>0.4175625726694009</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1598</v>
@@ -2343,19 +2343,19 @@
         <v>1639054</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1583440</v>
+        <v>1579895</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1696668</v>
+        <v>1694836</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5014315285730584</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4844174558329682</v>
+        <v>0.4833330938087193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5190571596281158</v>
+        <v>0.5184965414695162</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2836</v>
@@ -2364,19 +2364,19 @@
         <v>2919862</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2839952</v>
+        <v>2843695</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2999199</v>
+        <v>2999057</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4514320433973522</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4390772924106757</v>
+        <v>0.4396559386986283</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.46369800755465</v>
+        <v>0.4636760805467266</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>18335</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11167</v>
+        <v>11346</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28947</v>
+        <v>29092</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.005730894520378967</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.003490437555450652</v>
+        <v>0.00354655590178971</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.009048101585415651</v>
+        <v>0.009093311174170875</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>86</v>
@@ -2414,19 +2414,19 @@
         <v>86921</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>69525</v>
+        <v>70739</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>105518</v>
+        <v>105729</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02659165258385034</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02126972116561542</v>
+        <v>0.02164096329655318</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03228074448258254</v>
+        <v>0.03234538517748443</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>104</v>
@@ -2435,19 +2435,19 @@
         <v>105256</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>85948</v>
+        <v>86025</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>126200</v>
+        <v>126756</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01627334898100459</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01328816315981732</v>
+        <v>0.01330005358929794</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01951136905215798</v>
+        <v>0.0195974363447129</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>193132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>168397</v>
+        <v>165487</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223301</v>
+        <v>221158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1887882655914147</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1646090032743009</v>
+        <v>0.1617649604566715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2182777484384051</v>
+        <v>0.2161834313316628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -2800,19 +2800,19 @@
         <v>275678</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>247611</v>
+        <v>246728</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>306251</v>
+        <v>306675</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2570878850242403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2309137078001137</v>
+        <v>0.2300901819443053</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2855999346998359</v>
+        <v>0.2859949825097414</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>434</v>
@@ -2821,19 +2821,19 @@
         <v>468810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>428343</v>
+        <v>430872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>509255</v>
+        <v>507502</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2237415387304235</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2044287088478055</v>
+        <v>0.2056353429390188</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2430443623747552</v>
+        <v>0.2422076960454407</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>454746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>424166</v>
+        <v>422636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489301</v>
+        <v>488904</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.444516825282959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4146254266406301</v>
+        <v>0.4131297067092952</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4782949014625843</v>
+        <v>0.4779072616925773</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>334</v>
@@ -2871,19 +2871,19 @@
         <v>364848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>331197</v>
+        <v>332080</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>396473</v>
+        <v>392832</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3402452902560725</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3088636772631392</v>
+        <v>0.3096868830497999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3697373737011957</v>
+        <v>0.3663418028259057</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>759</v>
@@ -2892,19 +2892,19 @@
         <v>819593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>773452</v>
+        <v>776934</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>867288</v>
+        <v>871574</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3911544277369073</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3691334790096465</v>
+        <v>0.3707948798208058</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4139171328753671</v>
+        <v>0.4159626687874356</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>360628</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>330349</v>
+        <v>331977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>395988</v>
+        <v>393899</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.352516467591812</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3229180940858181</v>
+        <v>0.3245098543825748</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3870808841760139</v>
+        <v>0.3850384045304624</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>373</v>
@@ -2942,19 +2942,19 @@
         <v>409842</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>378542</v>
+        <v>378341</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>440318</v>
+        <v>445562</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3822055733038897</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3530155785142511</v>
+        <v>0.3528284941940577</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4106255886854757</v>
+        <v>0.4155166519902289</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>715</v>
@@ -2963,19 +2963,19 @@
         <v>770470</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>727423</v>
+        <v>717784</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>812894</v>
+        <v>812492</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3677102773059026</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3471656517726489</v>
+        <v>0.3425655753452176</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3879570733896964</v>
+        <v>0.3877650997857809</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>14505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8210</v>
+        <v>8965</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22922</v>
+        <v>24465</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01417844153381427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008024895224184807</v>
+        <v>0.008762888994012534</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02240672218404675</v>
+        <v>0.02391429782024227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3013,19 +3013,19 @@
         <v>21941</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13075</v>
+        <v>14138</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33501</v>
+        <v>33802</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02046125141579741</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0121931875469909</v>
+        <v>0.01318433509013893</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03124191658385699</v>
+        <v>0.03152276130647259</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -3034,19 +3034,19 @@
         <v>36445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26068</v>
+        <v>24104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49409</v>
+        <v>49473</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01739375622676665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01244116575570669</v>
+        <v>0.01150371742870618</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02358084134050161</v>
+        <v>0.02361098486497022</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>156313</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>133068</v>
+        <v>131775</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>181478</v>
+        <v>179138</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1630113446546602</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1387700061287601</v>
+        <v>0.137422238393851</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1892548510964206</v>
+        <v>0.1868148348340229</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>206</v>
@@ -3159,19 +3159,19 @@
         <v>221907</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>194650</v>
+        <v>195802</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>250626</v>
+        <v>250373</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2137835052923726</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1875246392050489</v>
+        <v>0.1886343836687553</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2414517748554703</v>
+        <v>0.2412078466260786</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>353</v>
@@ -3180,19 +3180,19 @@
         <v>378220</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>342872</v>
+        <v>339596</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>416044</v>
+        <v>415969</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1894028672031062</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1717017781334046</v>
+        <v>0.1700609527164584</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2083439838443865</v>
+        <v>0.2083068336668335</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>507904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>475995</v>
+        <v>476765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>539283</v>
+        <v>538608</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5296682969115026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4963919636225148</v>
+        <v>0.4971955699846251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5623917413870051</v>
+        <v>0.5616879969787659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>323</v>
@@ -3230,19 +3230,19 @@
         <v>345962</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>313831</v>
+        <v>316301</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>375816</v>
+        <v>376362</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3332972870287005</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.302343063117186</v>
+        <v>0.3047226007966185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3620587537739263</v>
+        <v>0.3625843227531455</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>803</v>
@@ -3251,19 +3251,19 @@
         <v>853866</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>808522</v>
+        <v>802128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>900218</v>
+        <v>897396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4275940524813056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4048870190908211</v>
+        <v>0.4016851153251983</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4508059362780607</v>
+        <v>0.4493930804664278</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>286941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257829</v>
+        <v>259778</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320114</v>
+        <v>319901</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2992366256121924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.268877879764391</v>
+        <v>0.2709100203943576</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.333831416768064</v>
+        <v>0.3336092759357478</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>414</v>
@@ -3301,19 +3301,19 @@
         <v>446546</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>411338</v>
+        <v>416693</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>475887</v>
+        <v>478823</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4301992516279895</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3962806032101973</v>
+        <v>0.4014389875366078</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4584658175657172</v>
+        <v>0.4612943376726324</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>687</v>
@@ -3322,19 +3322,19 @@
         <v>733487</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>689630</v>
+        <v>689988</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>780117</v>
+        <v>783555</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3673113944242242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3453489664307535</v>
+        <v>0.3455283596323119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3906625306080658</v>
+        <v>0.3923844847545527</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>7752</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3789</v>
+        <v>3716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14477</v>
+        <v>15277</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008083732821644724</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003950976347237587</v>
+        <v>0.003875414212199851</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01509703794035753</v>
+        <v>0.01593125186071525</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -3372,19 +3372,19 @@
         <v>23583</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14157</v>
+        <v>15184</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33445</v>
+        <v>35355</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02271995605093737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01363868767747664</v>
+        <v>0.01462776312228682</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03222043253966969</v>
+        <v>0.0340608518937538</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -3393,19 +3393,19 @@
         <v>31335</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22072</v>
+        <v>22394</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44418</v>
+        <v>44026</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01569168589136404</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01105313665413496</v>
+        <v>0.01121432352381759</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02224330308244976</v>
+        <v>0.02204695447657406</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>138052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115121</v>
+        <v>117104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>159228</v>
+        <v>164091</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1601682723250008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1335640313841588</v>
+        <v>0.1358644344244112</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1847363351295364</v>
+        <v>0.1903788001034566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -3518,19 +3518,19 @@
         <v>154928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>134522</v>
+        <v>132487</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177612</v>
+        <v>179051</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1834016714034253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1592446050765743</v>
+        <v>0.1568365354496472</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2102544946922202</v>
+        <v>0.211957480037849</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>270</v>
@@ -3539,19 +3539,19 @@
         <v>292980</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263439</v>
+        <v>264623</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>328692</v>
+        <v>327491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1716680982655458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1543586434087783</v>
+        <v>0.1550526829818184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1925930604925077</v>
+        <v>0.1918890419046142</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>429668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>400186</v>
+        <v>395588</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>462845</v>
+        <v>457741</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.498501657363971</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4642972822121266</v>
+        <v>0.4589625702918603</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5369937700455378</v>
+        <v>0.5310730793501156</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>270</v>
@@ -3589,19 +3589,19 @@
         <v>287436</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>259114</v>
+        <v>259932</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>314106</v>
+        <v>317164</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3402622635141644</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3067350576358374</v>
+        <v>0.307703265640288</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3718343236997811</v>
+        <v>0.3754534808160792</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>671</v>
@@ -3610,19 +3610,19 @@
         <v>717103</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>676342</v>
+        <v>672450</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>760148</v>
+        <v>758499</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.420177969983247</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3962945686138304</v>
+        <v>0.3940140781527248</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4453996270726222</v>
+        <v>0.4444331296981635</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>289441</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>261584</v>
+        <v>259127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>318589</v>
+        <v>317527</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3358098785374309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3034901175541713</v>
+        <v>0.3006401440385068</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3696282889721116</v>
+        <v>0.3683963397417303</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -3660,19 +3660,19 @@
         <v>382084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>352952</v>
+        <v>355105</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>411730</v>
+        <v>413256</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4523050407880646</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4178196585528102</v>
+        <v>0.4203680652965804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4873992717410963</v>
+        <v>0.4892063394873906</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>637</v>
@@ -3681,19 +3681,19 @@
         <v>671524</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>623923</v>
+        <v>628544</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>712546</v>
+        <v>714496</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3934714408544968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3655803073448235</v>
+        <v>0.3682877394813189</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4175074490275604</v>
+        <v>0.4186503032026493</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>4758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1873</v>
+        <v>1865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10712</v>
+        <v>11299</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005520191773597343</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002173213919117437</v>
+        <v>0.002163663720419854</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0124284196349906</v>
+        <v>0.01310908281782984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -3731,19 +3731,19 @@
         <v>20300</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12840</v>
+        <v>12675</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31645</v>
+        <v>30308</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02403102429434559</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01519940924120651</v>
+        <v>0.01500417242156564</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03746146248234847</v>
+        <v>0.03587817908880971</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -3752,19 +3752,19 @@
         <v>25058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16326</v>
+        <v>16502</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35939</v>
+        <v>35298</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0146824908967104</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009566151693678963</v>
+        <v>0.009669393296783691</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02105776560145921</v>
+        <v>0.02068217106137305</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>64670</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50045</v>
+        <v>48765</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82052</v>
+        <v>82322</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1293370829064579</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1000867653887729</v>
+        <v>0.09752819311635504</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1640997593553529</v>
+        <v>0.164640324036275</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -3877,19 +3877,19 @@
         <v>62504</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48291</v>
+        <v>48699</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77198</v>
+        <v>77703</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.142701409437586</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1102524386380701</v>
+        <v>0.1111833148506857</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1762481894417008</v>
+        <v>0.1773997370785248</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -3898,19 +3898,19 @@
         <v>127175</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105745</v>
+        <v>105467</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149584</v>
+        <v>150161</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1355775367732053</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1127315016062348</v>
+        <v>0.1124354312900487</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1594671017243145</v>
+        <v>0.1600820183051306</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>243910</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>220141</v>
+        <v>220936</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268708</v>
+        <v>270738</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4878055090033073</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4402702313330134</v>
+        <v>0.4418595670320292</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5374008844231338</v>
+        <v>0.5414606308838469</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>116</v>
@@ -3948,19 +3948,19 @@
         <v>129635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>110259</v>
+        <v>109420</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>150446</v>
+        <v>150190</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2959643831400451</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2517288274597144</v>
+        <v>0.2498125735418771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3434779359528757</v>
+        <v>0.3428943163736973</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>342</v>
@@ -3969,19 +3969,19 @@
         <v>373545</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>342561</v>
+        <v>342231</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>405746</v>
+        <v>404915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3982255595082005</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3651944141910798</v>
+        <v>0.3648426536499907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4325541267688429</v>
+        <v>0.4316685709469751</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>188346</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>164294</v>
+        <v>162715</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>211151</v>
+        <v>209416</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3766823237463745</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3285784484627391</v>
+        <v>0.3254205807842873</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4222910105376586</v>
+        <v>0.418820253131981</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>206</v>
@@ -4019,19 +4019,19 @@
         <v>227905</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>206642</v>
+        <v>204896</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>250779</v>
+        <v>248865</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5203213967052911</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.47177570054308</v>
+        <v>0.4677909653399014</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.572544394221046</v>
+        <v>0.5681735773800488</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>377</v>
@@ -4040,19 +4040,19 @@
         <v>416252</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>385504</v>
+        <v>384510</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>450471</v>
+        <v>451481</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4437543910274798</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4109749220640393</v>
+        <v>0.4099153317150548</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4802348532820626</v>
+        <v>0.4813110358713082</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>3088</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8502</v>
+        <v>9060</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006175084343860272</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001821192104027262</v>
+        <v>0.001823135134769882</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01700259507704758</v>
+        <v>0.01811962326104331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4090,19 +4090,19 @@
         <v>17964</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11765</v>
+        <v>10923</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27090</v>
+        <v>28183</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04101281071707781</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02685934801400118</v>
+        <v>0.02493746871176361</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06184882099196391</v>
+        <v>0.06434314662372197</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4111,19 +4111,19 @@
         <v>21052</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13922</v>
+        <v>13587</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32227</v>
+        <v>31910</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02244251269111439</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0148414227976434</v>
+        <v>0.01448494684893457</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03435632957813295</v>
+        <v>0.03401795587378789</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>552168</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>512303</v>
+        <v>508243</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>597735</v>
+        <v>595985</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1651292491745993</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1532074302179027</v>
+        <v>0.1519933997182971</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1787564803235333</v>
+        <v>0.17823296138826</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>667</v>
@@ -4236,19 +4236,19 @@
         <v>715017</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>669121</v>
+        <v>666615</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>764108</v>
+        <v>764608</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2107290712128174</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1972025075701462</v>
+        <v>0.1964641013565574</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2251970525893765</v>
+        <v>0.2253446219078847</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1174</v>
@@ -4257,19 +4257,19 @@
         <v>1267185</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1198538</v>
+        <v>1200363</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1332632</v>
+        <v>1336830</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1880957064755</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1779059945905575</v>
+        <v>0.1781769025532438</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1978104487557931</v>
+        <v>0.1984335619752011</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>1636226</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1568205</v>
+        <v>1578434</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1695431</v>
+        <v>1700548</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4893238190165951</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4689814324901703</v>
+        <v>0.472040630216773</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5070292118310586</v>
+        <v>0.508559448195307</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1043</v>
@@ -4307,19 +4307,19 @@
         <v>1127881</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1067035</v>
+        <v>1076024</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1188309</v>
+        <v>1183843</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3324078040803928</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3144754071215226</v>
+        <v>0.3171247538463223</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3502171707010072</v>
+        <v>0.3489010230574284</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2575</v>
@@ -4328,19 +4328,19 @@
         <v>2764107</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2676872</v>
+        <v>2681037</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2845579</v>
+        <v>2846509</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4102927001267151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3973439230196033</v>
+        <v>0.3979621060671456</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4223860480827181</v>
+        <v>0.4225240863413015</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>1125356</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1065719</v>
+        <v>1069658</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1183826</v>
+        <v>1184239</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3365447858081187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3187099773626643</v>
+        <v>0.3198880635455409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3540307610109352</v>
+        <v>0.3541541602082139</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1351</v>
@@ -4378,19 +4378,19 @@
         <v>1466377</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1408786</v>
+        <v>1402629</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1528760</v>
+        <v>1524027</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4321691653865726</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4151958515239612</v>
+        <v>0.4133814855946993</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4505546604551998</v>
+        <v>0.4491597935004377</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2416</v>
@@ -4399,19 +4399,19 @@
         <v>2591733</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2508220</v>
+        <v>2515956</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2670571</v>
+        <v>2681461</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3847062288214936</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.372309900721893</v>
+        <v>0.3734581685686721</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3964085604400833</v>
+        <v>0.3980250793023147</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>30102</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21058</v>
+        <v>20772</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>42121</v>
+        <v>41774</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.009002146000686871</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.006297647246655212</v>
+        <v>0.006211860513187348</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01259663693814726</v>
+        <v>0.01249279689450047</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>82</v>
@@ -4449,19 +4449,19 @@
         <v>83788</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>67321</v>
+        <v>66262</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>103609</v>
+        <v>102963</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02469395932021716</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.019840869750504</v>
+        <v>0.01952858315450865</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03053546092515518</v>
+        <v>0.03034505469629399</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>112</v>
@@ -4470,19 +4470,19 @@
         <v>113890</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>94268</v>
+        <v>95937</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>135617</v>
+        <v>135481</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0169053645762912</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01399270128219058</v>
+        <v>0.01424043181040041</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02013038048182203</v>
+        <v>0.02011019340015084</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>206145</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>180484</v>
+        <v>179960</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>233856</v>
+        <v>232209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1874951000381071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1641562427097622</v>
+        <v>0.1636793650847153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2126991440525854</v>
+        <v>0.2112012658302278</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>265</v>
@@ -4835,19 +4835,19 @@
         <v>289962</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258543</v>
+        <v>262349</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>320877</v>
+        <v>320836</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2445446520548186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2180470838472671</v>
+        <v>0.2212562914375219</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2706170580568513</v>
+        <v>0.2705822786283036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>458</v>
@@ -4856,19 +4856,19 @@
         <v>496107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>454791</v>
+        <v>454433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>537053</v>
+        <v>535771</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2170965543219233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1990167976468325</v>
+        <v>0.1988602263781013</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2350145460299827</v>
+        <v>0.2344536842693489</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>471372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>438916</v>
+        <v>438251</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>504778</v>
+        <v>506031</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4287273188912963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3992081260683534</v>
+        <v>0.3986032188922595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4591118975518632</v>
+        <v>0.4602515825309867</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>388</v>
@@ -4906,19 +4906,19 @@
         <v>411663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>377618</v>
+        <v>381090</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>445122</v>
+        <v>448926</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3471828124567668</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3184708380360846</v>
+        <v>0.3213985783661145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.375401056798253</v>
+        <v>0.3786098952762829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>836</v>
@@ -4927,19 +4927,19 @@
         <v>883034</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>833783</v>
+        <v>838358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>928783</v>
+        <v>927091</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3864161018179178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3648638514365656</v>
+        <v>0.3668656823125979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4064358437383666</v>
+        <v>0.4056955837912768</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>405091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>370453</v>
+        <v>370777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>437721</v>
+        <v>437438</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3684428198539565</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3369385186448121</v>
+        <v>0.3372332150840396</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3981207883425102</v>
+        <v>0.3978640355473029</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>430</v>
@@ -4977,19 +4977,19 @@
         <v>445902</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>411939</v>
+        <v>411998</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>481442</v>
+        <v>477409</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.376058827456163</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3474157095638297</v>
+        <v>0.3474659957515273</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4060322352458697</v>
+        <v>0.4026311189265869</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>812</v>
@@ -4998,19 +4998,19 @@
         <v>850992</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>808143</v>
+        <v>803938</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>898051</v>
+        <v>894617</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3723945581742833</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3536435191600557</v>
+        <v>0.3518034863638833</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3929874088904067</v>
+        <v>0.391484713880911</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>16860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9575</v>
+        <v>10308</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26545</v>
+        <v>25891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01533476121664004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00870853159966796</v>
+        <v>0.009375782564564698</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02414315174069138</v>
+        <v>0.02354888354123615</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -5048,19 +5048,19 @@
         <v>38197</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27407</v>
+        <v>27856</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51359</v>
+        <v>52766</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03221370803225151</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02311393689743464</v>
+        <v>0.02349310943441109</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04331420439909075</v>
+        <v>0.0445012293434204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -5069,19 +5069,19 @@
         <v>55057</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42737</v>
+        <v>40054</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71608</v>
+        <v>69772</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02409278568587562</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01870165449945218</v>
+        <v>0.01752784657524296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03133556891131437</v>
+        <v>0.0305320949588203</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>137935</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>116318</v>
+        <v>114656</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>160134</v>
+        <v>160941</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1575289046839093</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1328418909321736</v>
+        <v>0.1309432432019318</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1828820513149084</v>
+        <v>0.1838034849394749</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>156</v>
@@ -5194,19 +5194,19 @@
         <v>172854</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>148660</v>
+        <v>150631</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>198067</v>
+        <v>199725</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1785709821629337</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1535770862134883</v>
+        <v>0.1556132329745552</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2046179851144197</v>
+        <v>0.2063314185028311</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>288</v>
@@ -5215,19 +5215,19 @@
         <v>310788</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>280309</v>
+        <v>278539</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>345835</v>
+        <v>345124</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1685770698870586</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1520446448543586</v>
+        <v>0.1510844763788264</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1875872365368906</v>
+        <v>0.1872012492825232</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>395971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>367784</v>
+        <v>367692</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>427393</v>
+        <v>425870</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4522200601050253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4200292491258736</v>
+        <v>0.419924441973719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4881058021224414</v>
+        <v>0.4863669383808708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>314</v>
@@ -5265,19 +5265,19 @@
         <v>329828</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>299377</v>
+        <v>300214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>360271</v>
+        <v>361309</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3407374208369424</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3092796816320083</v>
+        <v>0.3101434002000933</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.372187690371304</v>
+        <v>0.3732599477933388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>700</v>
@@ -5286,19 +5286,19 @@
         <v>725799</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>687584</v>
+        <v>679257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>772838</v>
+        <v>771232</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3936859815595645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3729574218373299</v>
+        <v>0.3684408258449244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4192007961789144</v>
+        <v>0.4183298244494625</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>336484</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310206</v>
+        <v>309135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>365605</v>
+        <v>364932</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3842835232596383</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3542715903184331</v>
+        <v>0.3530490274703746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4175413515762276</v>
+        <v>0.4167718638489448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -5336,19 +5336,19 @@
         <v>442956</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>411688</v>
+        <v>408833</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473186</v>
+        <v>474592</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4576072726188373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4253051446712905</v>
+        <v>0.4223559302637663</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4888374405244301</v>
+        <v>0.4902898433987382</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>751</v>
@@ -5357,19 +5357,19 @@
         <v>779440</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>731891</v>
+        <v>735367</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>818541</v>
+        <v>822814</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4227822359956921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3969905018776124</v>
+        <v>0.3988759242971858</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4439909079170701</v>
+        <v>0.4463087746978315</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>5225</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1878</v>
+        <v>1899</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11855</v>
+        <v>11614</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005967511951427067</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002144359192951365</v>
+        <v>0.002168193250951652</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01353877984513889</v>
+        <v>0.01326339864225352</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -5407,19 +5407,19 @@
         <v>22345</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14778</v>
+        <v>14411</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33847</v>
+        <v>31663</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02308432438128652</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01526704640420275</v>
+        <v>0.01488749060884073</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03496634391061505</v>
+        <v>0.0327099925743448</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>28</v>
@@ -5428,19 +5428,19 @@
         <v>27570</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17613</v>
+        <v>17813</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38170</v>
+        <v>38581</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01495471255768467</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009553581536985215</v>
+        <v>0.0096620392845194</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02070391056606365</v>
+        <v>0.02092707782561059</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>126405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107128</v>
+        <v>107020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148288</v>
+        <v>146956</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1596258582346451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1352820758075486</v>
+        <v>0.1351452875268062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1872587526137568</v>
+        <v>0.1855769920135553</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -5553,19 +5553,19 @@
         <v>93884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77369</v>
+        <v>75031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114968</v>
+        <v>112412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1308655127699509</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1078459024001431</v>
+        <v>0.1045856839576717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1602544752740612</v>
+        <v>0.1566913986391386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>208</v>
@@ -5574,19 +5574,19 @@
         <v>220289</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>195503</v>
+        <v>193215</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>251910</v>
+        <v>248775</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1459552967824236</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1295328124979721</v>
+        <v>0.1280169836522706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1669058370954395</v>
+        <v>0.1648287330764129</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>354445</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>323699</v>
+        <v>326002</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>382313</v>
+        <v>383855</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4475957447384435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4087698079993047</v>
+        <v>0.4116782003581244</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4827876589213413</v>
+        <v>0.4847349354383719</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>221</v>
@@ -5624,19 +5624,19 @@
         <v>235112</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>208859</v>
+        <v>211876</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>260263</v>
+        <v>260476</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3277246931189108</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2911306149644451</v>
+        <v>0.2953359599914683</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3627829639828367</v>
+        <v>0.363080397370722</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>563</v>
@@ -5645,19 +5645,19 @@
         <v>589557</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>551433</v>
+        <v>554436</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>626184</v>
+        <v>631116</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3906178277131112</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.365358412673523</v>
+        <v>0.3673483836383816</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4148859061101207</v>
+        <v>0.4181531040805183</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>306266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>277489</v>
+        <v>277948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>334039</v>
+        <v>334151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3867556647839573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.35041533125352</v>
+        <v>0.3509952822242587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4218273952498951</v>
+        <v>0.4219682517649566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>360</v>
@@ -5695,19 +5695,19 @@
         <v>372970</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>347336</v>
+        <v>347639</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>401568</v>
+        <v>400278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5198856597299912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4841542265371542</v>
+        <v>0.484576991825082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5597495724831839</v>
+        <v>0.5579503807224135</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>649</v>
@@ -5716,19 +5716,19 @@
         <v>679236</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>639673</v>
+        <v>641936</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>718529</v>
+        <v>717115</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4500359122092831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4238230107726156</v>
+        <v>0.4253223988971296</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4760702115981737</v>
+        <v>0.4751332163991926</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>4769</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1794</v>
+        <v>1060</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12918</v>
+        <v>12487</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006022732242954066</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002265125258778734</v>
+        <v>0.001338858204500392</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01631343576543146</v>
+        <v>0.01576910598019735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -5766,19 +5766,19 @@
         <v>15442</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8788</v>
+        <v>8486</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26011</v>
+        <v>25410</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02152413438114702</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01224962994361761</v>
+        <v>0.01182850141577173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03625750557668938</v>
+        <v>0.03541972415487556</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -5787,19 +5787,19 @@
         <v>20211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11518</v>
+        <v>12126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31849</v>
+        <v>31595</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01339096329518207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00763164839719005</v>
+        <v>0.008034139475011524</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02110176697917772</v>
+        <v>0.02093353424383214</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>80687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64024</v>
+        <v>64752</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99005</v>
+        <v>100100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1670749707350115</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1325708063731242</v>
+        <v>0.1340786209729777</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2050038632985155</v>
+        <v>0.2072730163560037</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -5912,19 +5912,19 @@
         <v>66647</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50037</v>
+        <v>52813</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83265</v>
+        <v>83770</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1462316292710096</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.109787808828063</v>
+        <v>0.11587973604475</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1826944733794569</v>
+        <v>0.1838028193765197</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -5933,19 +5933,19 @@
         <v>147334</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126162</v>
+        <v>124336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174300</v>
+        <v>172044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1569550476045611</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1344006105371474</v>
+        <v>0.1324550172118637</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1856820888315873</v>
+        <v>0.1832788731582617</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>196321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175200</v>
+        <v>172756</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>219672</v>
+        <v>217074</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4065117430236282</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3627779922128327</v>
+        <v>0.3577178626373133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4548630479712443</v>
+        <v>0.4494852851045151</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>130</v>
@@ -5983,19 +5983,19 @@
         <v>142247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121901</v>
+        <v>122437</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165104</v>
+        <v>164387</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3121091589467779</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2674661726607144</v>
+        <v>0.2686427979618147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3622607247677728</v>
+        <v>0.3606873427047028</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>313</v>
@@ -6004,19 +6004,19 @@
         <v>338568</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>308125</v>
+        <v>306678</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>370379</v>
+        <v>367379</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3606771106148291</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3282463127071867</v>
+        <v>0.3267049604996882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3945659530470151</v>
+        <v>0.391369884499991</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>203069</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>180239</v>
+        <v>180960</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>226080</v>
+        <v>224866</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4204858620454167</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3732117664505293</v>
+        <v>0.3747056939945706</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4681322097373591</v>
+        <v>0.4656181942334954</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>231</v>
@@ -6054,19 +6054,19 @@
         <v>242141</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>219322</v>
+        <v>220653</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>263589</v>
+        <v>263138</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.531288409271519</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4812205983626258</v>
+        <v>0.4841412635081255</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5783487316447741</v>
+        <v>0.5773590629041618</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>419</v>
@@ -6075,19 +6075,19 @@
         <v>445210</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>411231</v>
+        <v>415510</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>475256</v>
+        <v>475011</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4742830549054413</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4380850308817246</v>
+        <v>0.4426437860840768</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5062910904677661</v>
+        <v>0.5060300648564588</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>2863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8131</v>
+        <v>7737</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005927424195943595</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001880601936666573</v>
+        <v>0.001875669262275334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01683642851137489</v>
+        <v>0.01602046116518161</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -6125,19 +6125,19 @@
         <v>4727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1858</v>
+        <v>1844</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10604</v>
+        <v>9525</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01037080251069344</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004077184392877263</v>
+        <v>0.004045389702556007</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02326708696391619</v>
+        <v>0.02089808986758371</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -6146,19 +6146,19 @@
         <v>7589</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3773</v>
+        <v>3667</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14414</v>
+        <v>15156</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008084786875168505</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004019369520372037</v>
+        <v>0.003906668151932912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01535570963316848</v>
+        <v>0.01614570454642264</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>551172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>505768</v>
+        <v>508725</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>597430</v>
+        <v>596120</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.169596194187594</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1556252229137163</v>
+        <v>0.1565350935554134</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1838297518408833</v>
+        <v>0.1834267138710516</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>567</v>
@@ -6271,19 +6271,19 @@
         <v>623346</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>574327</v>
+        <v>576416</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>672943</v>
+        <v>671865</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1873669893464769</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1726324927554987</v>
+        <v>0.1732604424668941</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.202274719644088</v>
+        <v>0.2019509527534373</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1087</v>
@@ -6292,19 +6292,19 @@
         <v>1174518</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1114912</v>
+        <v>1113203</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1242076</v>
+        <v>1245377</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1785855749975607</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1695223884649687</v>
+        <v>0.1692625261339618</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1888577719213806</v>
+        <v>0.1893596864751146</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>1418108</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1362654</v>
+        <v>1358499</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1483267</v>
+        <v>1475881</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4363532065983821</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4192901018327903</v>
+        <v>0.4180115870958775</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4564027971799081</v>
+        <v>0.4541299885582761</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1053</v>
@@ -6342,19 +6342,19 @@
         <v>1118850</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1067603</v>
+        <v>1063729</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1176097</v>
+        <v>1177353</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.336306646837751</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3209028408712302</v>
+        <v>0.3197383700506033</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3535140999170032</v>
+        <v>0.3538916092970059</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2412</v>
@@ -6363,19 +6363,19 @@
         <v>2536958</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2456101</v>
+        <v>2455208</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2618590</v>
+        <v>2619488</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3857445187836527</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3734502036569969</v>
+        <v>0.3733145218788846</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3981567353827647</v>
+        <v>0.398293290649094</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>1250911</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1187923</v>
+        <v>1198223</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1309271</v>
+        <v>1308058</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3849065809546666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3655251577296771</v>
+        <v>0.3686944316066677</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4028639764268247</v>
+        <v>0.4024909092338325</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1446</v>
@@ -6413,19 +6413,19 @@
         <v>1503968</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1444570</v>
+        <v>1443974</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1566128</v>
+        <v>1559295</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4520663722307138</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4342122995748852</v>
+        <v>0.4340333161455281</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4707504725210795</v>
+        <v>0.4686966669378523</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2631</v>
@@ -6434,19 +6434,19 @@
         <v>2754879</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2662892</v>
+        <v>2676614</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2837683</v>
+        <v>2842501</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4188794523709743</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4048928446929128</v>
+        <v>0.4069793440586964</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.431469788302516</v>
+        <v>0.432202381980168</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>29717</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20219</v>
+        <v>20213</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>43147</v>
+        <v>42242</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.009144018259357262</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.006221455297786099</v>
+        <v>0.006219515312843185</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01327646244483376</v>
+        <v>0.0129977650270812</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>80</v>
@@ -6484,19 +6484,19 @@
         <v>80710</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>64886</v>
+        <v>63978</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>99868</v>
+        <v>101114</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02425999158505826</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01950352737144233</v>
+        <v>0.01923076027228867</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0300187124441177</v>
+        <v>0.03039297573711003</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>109</v>
@@ -6505,19 +6505,19 @@
         <v>110427</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>90791</v>
+        <v>89987</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>131208</v>
+        <v>132697</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01679045384781225</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01380477673579669</v>
+        <v>0.01368258528773851</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01995020961449568</v>
+        <v>0.02017654672475669</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>102883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84256</v>
+        <v>83708</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124012</v>
+        <v>123718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2164278598447999</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1772431603552835</v>
+        <v>0.1760904078002152</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2608748582179739</v>
+        <v>0.260256861958731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>210</v>
@@ -6873,16 +6873,16 @@
         <v>126853</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164283</v>
+        <v>163916</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2424698657242701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2130009929644935</v>
+        <v>0.2130007557286636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2758503475728396</v>
+        <v>0.275235078216905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>306</v>
@@ -6891,19 +6891,19 @@
         <v>247286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222644</v>
+        <v>220356</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273230</v>
+        <v>273177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2309101071918842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2078996586940266</v>
+        <v>0.2057628213212211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2551362116120549</v>
+        <v>0.2550863237787175</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>190412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167807</v>
+        <v>166979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213204</v>
+        <v>214514</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4005560334550613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3530030561686479</v>
+        <v>0.351261399286346</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4485016692048439</v>
+        <v>0.4512569104794482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -6941,19 +6941,19 @@
         <v>216352</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196747</v>
+        <v>194276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239369</v>
+        <v>236540</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3632812685216655</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3303622464557201</v>
+        <v>0.3262132260585306</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4019297318112709</v>
+        <v>0.3971786581423334</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>510</v>
@@ -6962,19 +6962,19 @@
         <v>406764</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>377309</v>
+        <v>375370</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>439069</v>
+        <v>439418</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3798271246272117</v>
+        <v>0.3798271246272118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3523218883878826</v>
+        <v>0.3505113360436594</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4099920072541833</v>
+        <v>0.410317981681795</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>172778</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>150151</v>
+        <v>149724</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>197781</v>
+        <v>198670</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3634597221822434</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3158606092379352</v>
+        <v>0.3149632947445614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4160565028996354</v>
+        <v>0.4179274352083678</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>270</v>
@@ -7012,19 +7012,19 @@
         <v>220890</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>199720</v>
+        <v>199774</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>245892</v>
+        <v>246767</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.370901385328456</v>
+        <v>0.3709013853284561</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3353532445479921</v>
+        <v>0.3354447170070224</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4128817498347676</v>
+        <v>0.414351082374456</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>413</v>
@@ -7033,19 +7033,19 @@
         <v>393668</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>359454</v>
+        <v>358824</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>425760</v>
+        <v>426480</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3675981133206193</v>
+        <v>0.3675981133206194</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3356497626558504</v>
+        <v>0.3350616174322338</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3975651384686875</v>
+        <v>0.3982366995479913</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>9297</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4314</v>
+        <v>3903</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19074</v>
+        <v>19235</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01955638451789536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009075854706017156</v>
+        <v>0.008209451719674654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04012455158925658</v>
+        <v>0.04046254657058294</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -7083,19 +7083,19 @@
         <v>13905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8140</v>
+        <v>8063</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23994</v>
+        <v>23083</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02334748042560829</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01366800370973819</v>
+        <v>0.01353896613206341</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04028872236548742</v>
+        <v>0.03875843124403697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -7104,19 +7104,19 @@
         <v>23201</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15120</v>
+        <v>14665</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35887</v>
+        <v>35207</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02166465486028477</v>
+        <v>0.02166465486028478</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01411881492963502</v>
+        <v>0.01369400683076914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03351053961117258</v>
+        <v>0.03287575208471426</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>179291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>156248</v>
+        <v>152888</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>205011</v>
+        <v>204301</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1888031440440109</v>
+        <v>0.1888031440440108</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1645374967027876</v>
+        <v>0.1609992815226842</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2158879430182248</v>
+        <v>0.2151396835536515</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>322</v>
@@ -7229,19 +7229,19 @@
         <v>204869</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>185109</v>
+        <v>184670</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>227507</v>
+        <v>228634</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1913322133272546</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1728778166107115</v>
+        <v>0.1724680249888633</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2124740208272194</v>
+        <v>0.2135264756642175</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>512</v>
@@ -7250,19 +7250,19 @@
         <v>384160</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>350561</v>
+        <v>350107</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>415867</v>
+        <v>416766</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1901434953037455</v>
+        <v>0.1901434953037454</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1735135481286075</v>
+        <v>0.1732888813103728</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2058371984579392</v>
+        <v>0.20628210004651</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>429558</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>397374</v>
+        <v>395160</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>465583</v>
+        <v>463863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4523479518315761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4184569805459445</v>
+        <v>0.4161256069006176</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.490284197323492</v>
+        <v>0.4884731666734183</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>621</v>
@@ -7300,19 +7300,19 @@
         <v>408294</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>382478</v>
+        <v>381014</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>435665</v>
+        <v>437638</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3813158947296179</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.357205826973246</v>
+        <v>0.3558381309746337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4068779751200746</v>
+        <v>0.408720775725577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1046</v>
@@ -7321,19 +7321,19 @@
         <v>837852</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>792301</v>
+        <v>797176</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>880834</v>
+        <v>883951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4147025192414345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3921566304722503</v>
+        <v>0.3945695157384709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4359766157293271</v>
+        <v>0.4375195626887955</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>331467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296797</v>
+        <v>298254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>365916</v>
+        <v>367413</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.349052944652262</v>
+        <v>0.3490529446522619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3125440418502231</v>
+        <v>0.3140776354513315</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3853297119287324</v>
+        <v>0.3869056328831685</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>570</v>
@@ -7371,19 +7371,19 @@
         <v>439943</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>411863</v>
+        <v>411794</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>467183</v>
+        <v>471461</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4108731572030459</v>
+        <v>0.4108731572030458</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3846487391988193</v>
+        <v>0.3845846870425002</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4363129253324565</v>
+        <v>0.4403083593038744</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>845</v>
@@ -7392,19 +7392,19 @@
         <v>771410</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>728051</v>
+        <v>722337</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>816537</v>
+        <v>813539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3818163016383657</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3603553190965127</v>
+        <v>0.357527045694755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4041522876812736</v>
+        <v>0.4026684026958306</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>9302</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3372</v>
+        <v>3452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26193</v>
+        <v>25990</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009795959472151205</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00355125454777696</v>
+        <v>0.003635184865928398</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02758258947376873</v>
+        <v>0.02736919074029343</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -7442,19 +7442,19 @@
         <v>17645</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10838</v>
+        <v>11201</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28283</v>
+        <v>28077</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.01647873474008163</v>
+        <v>0.01647873474008162</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01012202382326306</v>
+        <v>0.01046046969425014</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02641390817696461</v>
+        <v>0.02622157993472178</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -7463,19 +7463,19 @@
         <v>26947</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17675</v>
+        <v>17390</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>45776</v>
+        <v>44624</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0133376838164544</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008748614457853448</v>
+        <v>0.008607320693876796</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02265723760230027</v>
+        <v>0.02208712556209875</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>151032</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127166</v>
+        <v>129343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172479</v>
+        <v>173978</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.146309196040522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1231898166599728</v>
+        <v>0.1252986186185013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1670855219351561</v>
+        <v>0.1685381803891707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -7588,19 +7588,19 @@
         <v>151901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>133690</v>
+        <v>134130</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>171745</v>
+        <v>171239</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1491229044791322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.131244921586007</v>
+        <v>0.1316770688156429</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1686042895010176</v>
+        <v>0.1681070844034274</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>414</v>
@@ -7609,19 +7609,19 @@
         <v>302933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>273554</v>
+        <v>275937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>334354</v>
+        <v>330690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1477066873633312</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1333819120821676</v>
+        <v>0.1345435942138059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1630270317599518</v>
+        <v>0.1612408728704421</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>480786</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>447087</v>
+        <v>447624</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>517065</v>
+        <v>519652</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4657524653260122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4331069399146105</v>
+        <v>0.4336265331584003</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5008966539782099</v>
+        <v>0.5034022964643519</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>523</v>
@@ -7659,19 +7659,19 @@
         <v>334792</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>308892</v>
+        <v>309176</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>359615</v>
+        <v>362244</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3286685297233926</v>
+        <v>0.3286685297233925</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3032426583898304</v>
+        <v>0.3035209069057171</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3530374418981146</v>
+        <v>0.3556191939775764</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1019</v>
@@ -7680,19 +7680,19 @@
         <v>815578</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>772777</v>
+        <v>774476</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>861774</v>
+        <v>861613</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3976666580432158</v>
+        <v>0.3976666580432159</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3767974482508822</v>
+        <v>0.3776257802358242</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4201911171606654</v>
+        <v>0.4201128913510536</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>393212</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>359167</v>
+        <v>358310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>429616</v>
+        <v>429105</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3809165522987309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3479356323998332</v>
+        <v>0.3471055221110931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4161817667309438</v>
+        <v>0.4156873362762446</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>670</v>
@@ -7730,19 +7730,19 @@
         <v>500432</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>472070</v>
+        <v>471545</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>527290</v>
+        <v>528813</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4912797484491424</v>
+        <v>0.4912797484491423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4634363611905449</v>
+        <v>0.4629203548142505</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5176464308109447</v>
+        <v>0.5191416316792583</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1014</v>
@@ -7751,19 +7751,19 @@
         <v>893644</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>849547</v>
+        <v>851190</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>937958</v>
+        <v>939026</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4357309057908315</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4142296332037778</v>
+        <v>0.4150306444391776</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4573377919641485</v>
+        <v>0.457858659473415</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>7248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21280</v>
+        <v>20999</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.007021786334734804</v>
+        <v>0.007021786334734805</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001179202359078186</v>
+        <v>0.001185745262774068</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02061498374630523</v>
+        <v>0.02034264652658732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -7801,19 +7801,19 @@
         <v>31505</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20412</v>
+        <v>20888</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46355</v>
+        <v>47407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03092881734833296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02003856705192647</v>
+        <v>0.02050616110104761</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04550752703374512</v>
+        <v>0.04653954655490582</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -7822,19 +7822,19 @@
         <v>38753</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25307</v>
+        <v>27241</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56411</v>
+        <v>58181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01889574880262132</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01233951375932406</v>
+        <v>0.01328236609536629</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02750522009483268</v>
+        <v>0.02836842941328275</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>144076</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122343</v>
+        <v>120492</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>169377</v>
+        <v>167950</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1512216612070613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1284107313898486</v>
+        <v>0.1264686436401217</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1777771909578257</v>
+        <v>0.1762797371367659</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>182</v>
@@ -7947,19 +7947,19 @@
         <v>112165</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97373</v>
+        <v>96755</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>130857</v>
+        <v>131971</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1278350835020417</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1109765936644558</v>
+        <v>0.1102719825649204</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1491378131906572</v>
+        <v>0.1504078866687799</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>334</v>
@@ -7968,19 +7968,19 @@
         <v>256241</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>228206</v>
+        <v>230147</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>288055</v>
+        <v>286541</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1400096451016225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1246914721483943</v>
+        <v>0.1257518607753436</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1573929618807593</v>
+        <v>0.1565657570017344</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>432205</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>399857</v>
+        <v>401709</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>469225</v>
+        <v>472073</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4536414275119002</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4196890699745132</v>
+        <v>0.4216328140132925</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4924978017561336</v>
+        <v>0.4954866422934769</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>424</v>
@@ -8018,19 +8018,19 @@
         <v>265335</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>243850</v>
+        <v>242783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>288566</v>
+        <v>289576</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3024040418110359</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2779167120937496</v>
+        <v>0.2767011473371905</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3288802034385435</v>
+        <v>0.3300307418298689</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>864</v>
@@ -8039,19 +8039,19 @@
         <v>697540</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>656920</v>
+        <v>657404</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>738796</v>
+        <v>738615</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3811350511788381</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3589398591820397</v>
+        <v>0.3592043440065307</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4036769025924414</v>
+        <v>0.4035781560311042</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>369080</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>337018</v>
+        <v>335797</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>402056</v>
+        <v>402324</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3873852862284035</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3537333748155763</v>
+        <v>0.352451634977397</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4219970000891169</v>
+        <v>0.4222780965653498</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>644</v>
@@ -8089,19 +8089,19 @@
         <v>481856</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>454951</v>
+        <v>455480</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>506601</v>
+        <v>508904</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5491739225225087</v>
+        <v>0.5491739225225086</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5185094967256547</v>
+        <v>0.5191127332573167</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5773762567857179</v>
+        <v>0.580000228721024</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>972</v>
@@ -8110,19 +8110,19 @@
         <v>850936</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>806883</v>
+        <v>806241</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>892276</v>
+        <v>892887</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4649501535076867</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4408797396825781</v>
+        <v>0.4405289763439502</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4875384351128991</v>
+        <v>0.4878720250074603</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>7385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22691</v>
+        <v>21585</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.007751625052634998</v>
+        <v>0.007751625052634997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001196138505974771</v>
+        <v>0.001199717615187704</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02381685004298677</v>
+        <v>0.02265519607280418</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -8160,19 +8160,19 @@
         <v>18063</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11033</v>
+        <v>11395</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28224</v>
+        <v>29938</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02058695216441371</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01257463684456682</v>
+        <v>0.0129869022388155</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03216757163440108</v>
+        <v>0.03412038722489683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -8181,19 +8181,19 @@
         <v>25449</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15063</v>
+        <v>16306</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42482</v>
+        <v>43730</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01390515021185271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008230375022019992</v>
+        <v>0.008909677083043395</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02321218567485025</v>
+        <v>0.02389412591656401</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>577282</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>533847</v>
+        <v>538079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>622769</v>
+        <v>631621</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1692902288591462</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1565529165198243</v>
+        <v>0.157793957315544</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1826295382887075</v>
+        <v>0.1852253954447281</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>958</v>
@@ -8306,19 +8306,19 @@
         <v>613338</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>574938</v>
+        <v>574912</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>652035</v>
+        <v>650648</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1721723196973772</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1613929217364823</v>
+        <v>0.1613854945370131</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.183034888518682</v>
+        <v>0.1826455561024679</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1566</v>
@@ -8327,19 +8327,19 @@
         <v>1190620</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1133969</v>
+        <v>1129125</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1251082</v>
+        <v>1247119</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1707627596721528</v>
+        <v>0.1707627596721527</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1626376310436385</v>
+        <v>0.1619429220396901</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.179434355661158</v>
+        <v>0.1788659859608735</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>1532961</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1475995</v>
+        <v>1472196</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1595571</v>
+        <v>1601133</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4495471566300349</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4328415111221601</v>
+        <v>0.4317274382800267</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4679076251475419</v>
+        <v>0.4695387569215606</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1888</v>
@@ -8377,19 +8377,19 @@
         <v>1224774</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1175078</v>
+        <v>1173983</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1276670</v>
+        <v>1273878</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3438104548671856</v>
+        <v>0.3438104548671855</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3298602559304348</v>
+        <v>0.3295527587758376</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3583785652158252</v>
+        <v>0.357594664889383</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3439</v>
@@ -8398,19 +8398,19 @@
         <v>2757735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2675002</v>
+        <v>2676756</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2843290</v>
+        <v>2837541</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3955236854243021</v>
+        <v>0.395523685424302</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3836578731708831</v>
+        <v>0.3839093738570767</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4077942177006602</v>
+        <v>0.4069697358045813</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1266536</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1204526</v>
+        <v>1198540</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1326859</v>
+        <v>1324132</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3714169904116398</v>
+        <v>0.3714169904116397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3532322549308496</v>
+        <v>0.3514766414836833</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3891067675308833</v>
+        <v>0.3883071171001468</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2154</v>
@@ -8448,19 +8448,19 @@
         <v>1643122</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1590176</v>
+        <v>1587022</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1696512</v>
+        <v>1697564</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4612464099612407</v>
+        <v>0.4612464099612408</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4463838046604899</v>
+        <v>0.4454984047155376</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4762336974881456</v>
+        <v>0.4765292025210689</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3244</v>
@@ -8469,19 +8469,19 @@
         <v>2909658</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2831410</v>
+        <v>2829592</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2995421</v>
+        <v>2992825</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4173130414474462</v>
+        <v>0.4173130414474461</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4060904160447287</v>
+        <v>0.4058296676648471</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4296133620652366</v>
+        <v>0.4292410821890149</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>33233</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>18923</v>
+        <v>19789</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>55650</v>
+        <v>55413</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.009745624099179069</v>
+        <v>0.009745624099179067</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.005549381866466705</v>
+        <v>0.005803072597369517</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01631957016345998</v>
+        <v>0.01625012675653841</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>87</v>
@@ -8519,19 +8519,19 @@
         <v>81118</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>64622</v>
+        <v>65177</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>105235</v>
+        <v>105132</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02277081547419644</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01814022456907579</v>
+        <v>0.01829617776536938</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02954084163295335</v>
+        <v>0.0295120715287319</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>108</v>
@@ -8540,19 +8540,19 @@
         <v>114350</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>92470</v>
+        <v>92077</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>149093</v>
+        <v>142755</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01640051345609908</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01326237355700748</v>
+        <v>0.01320602585895355</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02138338046136316</v>
+        <v>0.02047437193406853</v>
       </c>
     </row>
     <row r="28">
